--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-5.099270441692582</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.31633149173114</v>
+        <v>-10.75467488317497</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.185621841287879</v>
+        <v>-3.405690359754452</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.26115097749447</v>
+        <v>-9.265464711837156</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.078385059032428</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.87954926767935</v>
+        <v>-11.36348005761807</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.285123342884997</v>
+        <v>-3.418429170419452</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.148963034443719</v>
+        <v>-9.128257378055867</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.07906021086099</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.0373900707392</v>
+        <v>-11.53026290351882</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.186197902612915</v>
+        <v>-3.315824793048845</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.772546235441253</v>
+        <v>-8.724962081319337</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.093978585610275</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.49978402250328</v>
+        <v>-11.99341620884772</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.329493157215607</v>
+        <v>-3.467708598315709</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.476123406801733</v>
+        <v>-8.386958098854494</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.122288558368072</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.92792851003341</v>
+        <v>-12.39566412135692</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.41166044985028</v>
+        <v>-3.465522183741141</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.194521064979048</v>
+        <v>-8.093114453874795</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.148355855833558</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.47438813834422</v>
+        <v>-12.99450605333747</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.28833095708122</v>
+        <v>-3.255456184645646</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.87983447387532</v>
+        <v>-7.707951996574056</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.157730301240949</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05365707757639</v>
+        <v>-13.54359723451946</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.283997404840609</v>
+        <v>-3.104410286760652</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.718615856682305</v>
+        <v>-7.521517604107877</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.117633658773474</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.47522922907996</v>
+        <v>-13.90185500948045</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.400780746188805</v>
+        <v>-3.248386341111114</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.575962124918858</v>
+        <v>-7.270210851060945</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.996270018173435</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.15168233230627</v>
+        <v>-14.66662878767704</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.274858977457084</v>
+        <v>-3.096646551175509</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.541058045542816</v>
+        <v>-7.195218140383537</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.754650455583294</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.59723958261589</v>
+        <v>-15.11755388215177</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.356109808892836</v>
+        <v>-3.130909107712306</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.548559935071125</v>
+        <v>-7.185988066880121</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.370686311376202</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.15393739174892</v>
+        <v>-15.7179276135648</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.393318133569021</v>
+        <v>-3.160785742797125</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.291518753379517</v>
+        <v>-6.761169024271793</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.833425228527397</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.23695568406831</v>
+        <v>-15.80469030449692</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.486050914596967</v>
+        <v>-3.375132924921864</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.841942166097486</v>
+        <v>-6.315454666328071</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.161882559703207</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.92571555196583</v>
+        <v>-16.59052959796584</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.18479702620885</v>
+        <v>-2.98849103740001</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.477884500977609</v>
+        <v>-5.905207356782585</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.387930165701863</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.52726759063462</v>
+        <v>-17.21771636559873</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.118982019823493</v>
+        <v>-2.949489067234508</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.429181134406388</v>
+        <v>-5.805522562945683</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.562980086008466</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.29064049242714</v>
+        <v>-18.01219657894319</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.92766419839735</v>
+        <v>-2.68554824194531</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.18555956312755</v>
+        <v>-5.567674697220045</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.7345910517029561</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.80240551820737</v>
+        <v>-18.55848600731705</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.794973709096456</v>
+        <v>-2.605619733096572</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.939751577274142</v>
+        <v>-5.410684893844908</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.04380703414037797</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.21902877923678</v>
+        <v>-19.03767738362707</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.87949761624264</v>
+        <v>-2.586059832651034</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.85136544078965</v>
+        <v>-5.367362463741636</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7330217406853204</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.7884915836405</v>
+        <v>-19.7067333357478</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.659167251719232</v>
+        <v>-2.331689480739138</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.486587699013478</v>
+        <v>-5.056223886708016</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.29335574595593</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.10889951108606</v>
+        <v>-20.08699927178573</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.416161018673955</v>
+        <v>-2.120654651233355</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.109188977297882</v>
+        <v>-4.834649753414644</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.703513767697026</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.78778778264092</v>
+        <v>-20.81853169306718</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.174202169856015</v>
+        <v>-1.851764935469985</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.068563561580006</v>
+        <v>-4.949534710850791</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.9441831826715</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.35024620502432</v>
+        <v>-21.48191867805743</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.980148057135951</v>
+        <v>-1.56258215030194</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.044238062900079</v>
+        <v>-5.00330479862176</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.014825418720425</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.54381590253924</v>
+        <v>-21.67606443689739</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.852079150738187</v>
+        <v>-1.46056692655921</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.868761927912425</v>
+        <v>-4.970076534009459</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.917257918047137</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.07061089198177</v>
+        <v>-22.26663203348197</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.65071953303244</v>
+        <v>-1.319589009559504</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.018498595513246</v>
+        <v>-5.180221086922003</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.669554224047151</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.23435632362323</v>
+        <v>-22.50027726999541</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.461771418420649</v>
+        <v>-1.11991829892034</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.031211221572562</v>
+        <v>-5.176830180485997</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.292317675488148</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.35085163430891</v>
+        <v>-22.56092081675829</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.470857476592807</v>
+        <v>-1.144531828262785</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.240557144011762</v>
+        <v>-5.357543236610342</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.816884062651276</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.43229885028729</v>
+        <v>-22.6393960799916</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.311170658832274</v>
+        <v>-0.897624088970673</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.486338945259485</v>
+        <v>-5.531120987685946</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.2751183734033192</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.35432109456197</v>
+        <v>-22.48744681321052</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.256287725319759</v>
+        <v>-0.9090405770486581</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.521334670755419</v>
+        <v>-5.557056839615405</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2980776302314664</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.40995028933646</v>
+        <v>-22.61686422680098</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.104731227623938</v>
+        <v>-0.7853444998000303</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.833782478073211</v>
+        <v>-5.83812239702158</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.8696443741255602</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.44765612152064</v>
+        <v>-22.68333384832843</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.194884824992063</v>
+        <v>-0.8115291054834824</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.017192548582952</v>
+        <v>-6.009579195036825</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.411324178359496</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.28973676464374</v>
+        <v>-22.50825048242602</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.261747215604758</v>
+        <v>-0.8969694738285867</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.063107254648886</v>
+        <v>-6.064959636057326</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.899545983220137</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.17415791515698</v>
+        <v>-22.32019264440747</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.347527983823748</v>
+        <v>-0.9968506522081149</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.379482752819196</v>
+        <v>-6.278691479948504</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.320847192749248</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.129735731615</v>
+        <v>-22.36805810359682</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.422232663838637</v>
+        <v>-1.04929841739207</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.288910201760134</v>
+        <v>-6.200713724223184</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.667499881585868</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.73624656970692</v>
+        <v>-21.92145346905986</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.565527918441328</v>
+        <v>-1.243745299197385</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.222676241683843</v>
+        <v>-6.075276370696606</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.942812352403548</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.4699753145119</v>
+        <v>-21.64079377304178</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.596936352958629</v>
+        <v>-1.280704870119578</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.187143731771398</v>
+        <v>-6.076533231769412</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.153715398098738</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.23763930828263</v>
+        <v>-21.40329939949287</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.768812104664809</v>
+        <v>-1.415647235509248</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.083164662602409</v>
+        <v>-5.844393610082768</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.314411234997888</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.95192598336764</v>
+        <v>-21.08025991917612</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.774402517978226</v>
+        <v>-1.439985826492017</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.904559467235583</v>
+        <v>-5.79283612149205</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.438930250989818</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.63387467043359</v>
+        <v>-20.72399217424707</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.845559183923007</v>
+        <v>-1.578947528854098</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.544442585271065</v>
+        <v>-5.309638500512466</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.543936771191376</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.50245413450834</v>
+        <v>-20.60541518740956</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.783148176276499</v>
+        <v>-1.514585768084172</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.209345094037086</v>
+        <v>-4.956211785300071</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.64338433530732</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.13365705575976</v>
+        <v>-20.21843290001382</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.926076846399623</v>
+        <v>-1.538466128467481</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.361922791354562</v>
+        <v>-5.03311597219237</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.750597542335848</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.76412680805204</v>
+        <v>-19.77842678610909</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.786840205677866</v>
+        <v>-1.410698345035076</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.950392436130587</v>
+        <v>-4.634795750535695</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.875075687536377</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.21735296447304</v>
+        <v>-19.20155373829695</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.891604813017358</v>
+        <v>-1.550209924116509</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.851061134470411</v>
+        <v>-4.607995806618683</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.023750759967224</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.86740880181654</v>
+        <v>-18.76403516193215</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.169423479318785</v>
+        <v>-1.868614729227287</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.76078970637671</v>
+        <v>-4.533893372534513</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.199535062824584</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.6891440063236</v>
+        <v>-18.58426475161241</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.284544098206082</v>
+        <v>-2.025237948122856</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.584004341104883</v>
+        <v>-4.279588482136826</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.403432377697353</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.51976888446019</v>
+        <v>-18.27887369552631</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.196341253961374</v>
+        <v>-2.041354572921021</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.530064053396971</v>
+        <v>-4.21135139972575</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.633854325461314</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.10002965535445</v>
+        <v>-17.7677109156768</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.321556038339642</v>
+        <v>-2.152717700892743</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.343053599605756</v>
+        <v>-4.053955734962519</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.888639535177556</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.17532348899722</v>
+        <v>-17.69633168058371</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.229648072390725</v>
+        <v>-1.992873775498109</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.224254043619934</v>
+        <v>-3.994110818672989</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.162690401459921</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.04656069054884</v>
+        <v>-17.56167734585656</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.365035576077014</v>
+        <v>-2.136967660574146</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.004421186604511</v>
+        <v>-3.751287877867496</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.450196430171552</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.594156165853</v>
+        <v>-17.14426854665664</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.391220181760466</v>
+        <v>-2.160834928654613</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.958611218961312</v>
+        <v>-3.774670730742818</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.742038306720987</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.32043539034103</v>
+        <v>-16.78336612652162</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.577340358958444</v>
+        <v>-2.350568581436907</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.773342041448046</v>
+        <v>-3.59135230635297</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.030434408281686</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.86956266507767</v>
+        <v>-16.29933059816017</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.682929781376965</v>
+        <v>-2.508998538124634</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.68083182956841</v>
+        <v>-3.404891729281107</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.305620702597622</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.70802983261645</v>
+        <v>-16.05577448839554</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.592147753472436</v>
+        <v>-2.410046913246868</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.63016461757093</v>
+        <v>-3.290988694558091</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.561824238230105</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.25605735391439</v>
+        <v>-15.56735303858211</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.471541459694456</v>
+        <v>-2.320233715752628</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.649803071833519</v>
+        <v>-3.261308444015897</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.792899248975822</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.92373543088285</v>
+        <v>-15.1816668891677</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.676501460681677</v>
+        <v>-2.511067121973627</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.843124015594446</v>
+        <v>-3.463322676863731</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.999142738550384</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.5369364357269</v>
+        <v>-14.81561919401588</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.699164236900705</v>
+        <v>-2.521946825635101</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.875200157556675</v>
+        <v>-3.493369511885492</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.179760095988145</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.6291848015497</v>
+        <v>-14.88533570664807</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.534489251757475</v>
+        <v>-2.417300049021185</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.760079538669378</v>
+        <v>-3.406593728650531</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.339849135465304</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.48129414864956</v>
+        <v>-14.74376863602049</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.687734656519878</v>
+        <v>-2.605397163948263</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.949682268423255</v>
+        <v>-3.541012401926533</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.481058814428974</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.40421976182032</v>
+        <v>-14.59909868961941</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.550789168795424</v>
+        <v>-2.447490899374205</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.295960586284068</v>
+        <v>-3.901142376193892</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.609462774068722</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.07197639260584</v>
+        <v>-14.2412729606522</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.538299111884417</v>
+        <v>-2.463830093320679</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.524329624752295</v>
+        <v>-4.296870321887904</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.725456717363479</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75883469323743</v>
+        <v>-14.00330726420099</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.590589769434271</v>
+        <v>-2.50699541578985</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.698221591096101</v>
+        <v>-4.399985299069339</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.833416800481306</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.77222811904452</v>
+        <v>-13.98391756369239</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.455581942530392</v>
+        <v>-2.328102189760505</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.859911531191418</v>
+        <v>-4.565773129954116</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.931868136544889</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.58469397313964</v>
+        <v>-13.8289832518634</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.437658579940069</v>
+        <v>-2.31994568509011</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.034549758797202</v>
+        <v>-4.72759399307785</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.023733449610054</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.48626604037554</v>
+        <v>-13.78734972882671</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.526319654784237</v>
+        <v>-2.351118458156259</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.029116453117886</v>
+        <v>-4.652562005491918</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.104935415070745</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.2716046429826</v>
+        <v>-13.57140528575528</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.39852568674615</v>
+        <v>-2.216830707908675</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.113993852440796</v>
+        <v>-4.736666958947167</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.175131294711992</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.16138054535811</v>
+        <v>-13.56158605862399</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.380419031916043</v>
+        <v>-2.24030520690389</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.380199646121612</v>
+        <v>-4.993236817736472</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.2269973858443</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.09094395606962</v>
+        <v>-13.45257954516378</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.438548856533306</v>
+        <v>-2.261855137381371</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.336602277658664</v>
+        <v>-4.933404993749784</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.258770800672586</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.1625064834025</v>
+        <v>-13.6287364798992</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.565439455675315</v>
+        <v>-2.413477096591401</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.28257034383086</v>
+        <v>-4.881546382193707</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.262731244909977</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.21985076984926</v>
+        <v>-13.71104778786513</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.62038785070204</v>
+        <v>-2.379842970591006</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.387832458678338</v>
+        <v>-4.883798258282484</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.23841294509354</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.02850676381743</v>
+        <v>-13.59705310702222</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.422392954826616</v>
+        <v>-2.200164206391158</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.220512828361079</v>
+        <v>-4.688094515404362</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.1801039230543</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.16579265141577</v>
+        <v>-13.68660445845963</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.687970317971029</v>
+        <v>-2.49660012733352</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.168536386079427</v>
+        <v>-4.732071560649721</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.090893435734291</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.07408107000948</v>
+        <v>-13.59066406323546</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.724249089145452</v>
+        <v>-2.503342663297008</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.011494213492922</v>
+        <v>-4.487847743440162</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.969170401478249</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.19645482467109</v>
+        <v>-13.73386767171826</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.792381433133795</v>
+        <v>-2.561629595548373</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.025607715956303</v>
+        <v>-4.663873755147169</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.822536587608226</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.32808483744181</v>
+        <v>-13.92612813894901</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.795706878055593</v>
+        <v>-2.510765999008267</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.918826893979185</v>
+        <v>-4.578564309830482</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.652562577825144</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.56658731830953</v>
+        <v>-14.1784560916176</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.856271871001418</v>
+        <v>-2.549139538637366</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.983358854686053</v>
+        <v>-4.622672278104258</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.469035878094222</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.81435914958919</v>
+        <v>-14.3057525521477</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.933333165527818</v>
+        <v>-2.607072978712004</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.835978801596743</v>
+        <v>-4.529153958905808</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.274120613236058</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.94652594677642</v>
+        <v>-14.43870488750543</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.092928337168459</v>
+        <v>-2.774955578051457</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.47642488865442</v>
+        <v>-4.281853450528445</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.077364601041691</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.43663630365644</v>
+        <v>-14.9337903194653</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.216139999211943</v>
+        <v>-2.819770530678686</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.207063849988748</v>
+        <v>-3.988088359365795</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.879317888289876</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.21181846261219</v>
+        <v>-15.76064779773735</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.429479074017869</v>
+        <v>-3.073499359751337</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.056463090400372</v>
+        <v>-3.888311919409</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.687251699817121</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.63109946111847</v>
+        <v>-16.08472156997859</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.351396579869815</v>
+        <v>-2.960264032473248</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.031705545726668</v>
+        <v>-3.961969215196552</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.498019445012088</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.07966794108169</v>
+        <v>-16.39143494865171</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.558948856819698</v>
+        <v>-3.168523293776585</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.857905225502755</v>
+        <v>-3.806183903682853</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.315341839147364</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.71290335262745</v>
+        <v>-16.98086351488906</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.709876923979116</v>
+        <v>-3.311805456076435</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.588478725322874</v>
+        <v>-3.581546171524517</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.132899075340632</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.41542323081163</v>
+        <v>-17.66420316941011</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.965805259929177</v>
+        <v>-3.54546378489272</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.592445693083917</v>
+        <v>-3.5868747387811</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.952086272300361</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.25462675066343</v>
+        <v>-18.4923567856635</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.201754741742764</v>
+        <v>-3.772039177871631</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.668106111206252</v>
+        <v>-3.771541670363646</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.765053876223359</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.03305580072394</v>
+        <v>-19.27974097086774</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.432441117813978</v>
+        <v>-3.960502877278278</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.438087442579967</v>
+        <v>-3.576217604267935</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.573086125178268</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.94030001844419</v>
+        <v>-20.14168582075562</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.600061871096597</v>
+        <v>-4.110750144689926</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.451441591478527</v>
+        <v>-3.581729463764301</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.369114696201439</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16381499591202</v>
+        <v>-21.23587503075288</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.818140359531228</v>
+        <v>-4.273906422703517</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.416170927622918</v>
+        <v>-3.552730012969878</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.157856640146181</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.24848610174334</v>
+        <v>-22.33386100857423</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.866738987679715</v>
+        <v>-4.305092288072508</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.659164068365353</v>
+        <v>-3.75594873767915</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.936842877514816</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.65378770416853</v>
+        <v>-23.66966866751554</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.90636938838162</v>
+        <v>-4.376955938370743</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.661455221362655</v>
+        <v>-3.807794256932385</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.717623125451548</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01344953888746</v>
+        <v>-25.0523991398416</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.168843875752544</v>
+        <v>-4.640320702334904</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.795180002588045</v>
+        <v>-3.975415010215004</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.504311695166353</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.55574899824848</v>
+        <v>-26.61233393113042</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.269327300062791</v>
+        <v>-4.708138831055045</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.993240359977677</v>
+        <v>-4.231317161559382</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.314068013920484</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.0912404601318</v>
+        <v>-28.14802177755636</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.517858484907277</v>
+        <v>-4.899011514184569</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.258595153973781</v>
+        <v>-4.398964099447684</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.152930700642623</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.78958707706334</v>
+        <v>-29.93146836295913</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.66760824481094</v>
+        <v>-5.082081184820425</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.488391253451757</v>
+        <v>-4.730696868851339</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.0368143387421</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.51236393109755</v>
+        <v>-31.69548597094477</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.822437818217193</v>
+        <v>-5.224433793618513</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.927795121425767</v>
+        <v>-5.09341911908136</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.965986693646388</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.15978148997478</v>
+        <v>-33.42361757684125</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.777347927230288</v>
+        <v>-5.187814622570205</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.341092937533376</v>
+        <v>-5.420818336244404</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.948493658821028</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.15007336797398</v>
+        <v>-35.39535766171372</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.991904586200495</v>
+        <v>-5.373921707465341</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.53028980589916</v>
+        <v>-5.683711777306264</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.972841802179123</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.97796832152441</v>
+        <v>-37.30405830840328</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.311972113772172</v>
+        <v>-5.651504712315617</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.118985203177372</v>
+        <v>-6.154772833551567</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.036378184759318</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.07295934534888</v>
+        <v>-39.44948088277409</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.300922210173756</v>
+        <v>-5.674809011373889</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.446606989488726</v>
+        <v>-6.504284950214286</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.112574578237484</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.32216460434606</v>
+        <v>-41.73258211382849</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.50628807254907</v>
+        <v>-5.840387365413199</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.96325544422892</v>
+        <v>-6.976615959835238</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.19039571419097</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.26339962359731</v>
+        <v>-43.72170877687477</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.616446708659353</v>
+        <v>-6.011556132765926</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.23677983519826</v>
+        <v>-7.172987410158287</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.23029280056431</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.3598046161287</v>
+        <v>-45.92862589769317</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.731240019975608</v>
+        <v>-6.121073246036964</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.331411000138257</v>
+        <v>-7.357196111141373</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.227914478070915</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.52388372204896</v>
+        <v>-48.15518147277415</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.868813938236465</v>
+        <v>-6.223860915647355</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.807355485343524</v>
+        <v>-7.859246648213042</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.133325260687301</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.67017038840733</v>
+        <v>-50.42004512597003</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.293070011822598</v>
+        <v>-6.58107130638101</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.242294878048506</v>
+        <v>-8.29764240886824</v>
       </c>
     </row>
   </sheetData>
